--- a/output/BayesTheo0.1SymmetCitptile0.9alpha0.05power0.8N1000/BayesTheo0.1SymmetCitptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/BayesTheo0.1SymmetCitptile0.9alpha0.05power0.8N1000/BayesTheo0.1SymmetCitptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\BayesTheo0.1SymmetCitptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1149F26F-F854-46B1-8EFE-AE5B490202B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C144B0-F864-4492-8F10-62113E860CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{5CE6B6FD-53C8-4CEA-8A7B-399111A9B136}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{6B2DED1A-63A9-4F87-BDB5-55B24BA3711C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,31 +466,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFAB0A0-5DCE-43AE-BDAF-6F7C4AEC2E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E007070-0DCE-47BD-86E1-8CF4E914602C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -545,46 +545,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.8290411203358372E-2</v>
+        <v>5.9460625900946945E-2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8.1750000000000007</v>
+        <v>8.1790000000000003</v>
       </c>
       <c r="F2">
-        <v>176.55199999999999</v>
+        <v>176.68199999999999</v>
       </c>
       <c r="G2">
-        <v>58.725000000000001</v>
+        <v>58.933999999999997</v>
       </c>
       <c r="H2">
-        <v>8.7050000000000001</v>
+        <v>8.3309999999999995</v>
       </c>
       <c r="I2">
-        <v>8.67</v>
+        <v>8.4469999999999992</v>
       </c>
       <c r="J2">
-        <v>5.5124406472415302E-2</v>
+        <v>5.8961693579078961E-2</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>76.552000000000007</v>
+        <v>76.682000000000002</v>
       </c>
       <c r="M2">
-        <v>176.55199999999999</v>
+        <v>176.68199999999999</v>
       </c>
       <c r="N2">
-        <v>8.6959999999999997</v>
+        <v>8.6389999999999993</v>
       </c>
       <c r="O2">
-        <v>8.234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.4830000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -592,46 +592,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.0634693687889332E-2</v>
+        <v>5.5361564810302695E-2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>8.173</v>
+        <v>8.1769999999999996</v>
       </c>
       <c r="F3">
-        <v>176.53299999999999</v>
+        <v>176.762</v>
       </c>
       <c r="G3">
-        <v>58.707000000000001</v>
+        <v>59.225999999999999</v>
       </c>
       <c r="H3">
-        <v>5.9610000000000003</v>
+        <v>5.9930000000000003</v>
       </c>
       <c r="I3">
-        <v>5.7869999999999999</v>
+        <v>5.907</v>
       </c>
       <c r="J3">
-        <v>5.462808074049294E-2</v>
+        <v>6.0522602803304598E-2</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>76.533000000000001</v>
+        <v>76.762</v>
       </c>
       <c r="M3">
-        <v>107.81399999999999</v>
+        <v>107.788</v>
       </c>
       <c r="N3">
-        <v>6.05</v>
+        <v>5.98</v>
       </c>
       <c r="O3">
-        <v>5.9370000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.8579999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -639,46 +639,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5.8077587122654116E-2</v>
+        <v>5.9499458917413997E-2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>8.1850000000000005</v>
+        <v>8.19</v>
       </c>
       <c r="F4">
-        <v>176.744</v>
+        <v>176.863</v>
       </c>
       <c r="G4">
-        <v>58.868000000000002</v>
+        <v>59.231000000000002</v>
       </c>
       <c r="H4">
-        <v>8.2319999999999993</v>
+        <v>8.6069999999999993</v>
       </c>
       <c r="I4">
-        <v>8.61</v>
+        <v>8.19</v>
       </c>
       <c r="J4">
-        <v>6.5354220663719126E-2</v>
+        <v>5.9425665341082949E-2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>76.744</v>
+        <v>76.863</v>
       </c>
       <c r="M4">
-        <v>111.122</v>
+        <v>110.943</v>
       </c>
       <c r="N4">
-        <v>8.5510000000000002</v>
+        <v>8.3960000000000008</v>
       </c>
       <c r="O4">
-        <v>8.3719999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -686,46 +686,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.9324852901984221E-2</v>
+        <v>5.759178755211973E-2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>8.1809999999999992</v>
+        <v>8.17</v>
       </c>
       <c r="F5">
-        <v>176.572</v>
+        <v>176.47300000000001</v>
       </c>
       <c r="G5">
-        <v>58.71</v>
+        <v>58.710999999999999</v>
       </c>
       <c r="H5">
-        <v>14.055</v>
+        <v>14.445</v>
       </c>
       <c r="I5">
-        <v>12.988</v>
+        <v>13.321</v>
       </c>
       <c r="J5">
-        <v>5.654800360384124E-2</v>
+        <v>5.6571638674773217E-2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>76.572000000000003</v>
+        <v>76.472999999999999</v>
       </c>
       <c r="M5">
-        <v>117.869</v>
+        <v>117.964</v>
       </c>
       <c r="N5">
-        <v>13.718</v>
+        <v>13.858000000000001</v>
       </c>
       <c r="O5">
-        <v>13.459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13.593999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -733,46 +733,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.1389467353265302E-2</v>
+        <v>6.3214954058388409E-2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8.1739999999999995</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="F6">
-        <v>178.61199999999999</v>
+        <v>178.27199999999999</v>
       </c>
       <c r="G6">
-        <v>61.920999999999999</v>
+        <v>61.677</v>
       </c>
       <c r="H6">
-        <v>8.907</v>
+        <v>8.6229999999999993</v>
       </c>
       <c r="I6">
-        <v>8.4120000000000008</v>
+        <v>9.0730000000000004</v>
       </c>
       <c r="J6">
-        <v>6.1071748933228989E-2</v>
+        <v>5.8734806056735415E-2</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>78.611999999999995</v>
+        <v>78.272000000000006</v>
       </c>
       <c r="M6">
-        <v>178.61199999999999</v>
+        <v>178.27199999999999</v>
       </c>
       <c r="N6">
-        <v>9.4830000000000005</v>
+        <v>8.68</v>
       </c>
       <c r="O6">
-        <v>8.6199999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.9819999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -780,46 +780,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6.3218112840427679E-2</v>
+        <v>6.3028857516570891E-2</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8.1929999999999996</v>
+        <v>8.1829999999999998</v>
       </c>
       <c r="F7">
-        <v>178.61799999999999</v>
+        <v>178.54499999999999</v>
       </c>
       <c r="G7">
-        <v>62.134999999999998</v>
+        <v>61.725999999999999</v>
       </c>
       <c r="H7">
-        <v>6.2770000000000001</v>
+        <v>6.1970000000000001</v>
       </c>
       <c r="I7">
-        <v>6.2590000000000003</v>
+        <v>6.4130000000000003</v>
       </c>
       <c r="J7">
-        <v>6.3365079365079402E-2</v>
+        <v>5.8355795148247964E-2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>78.617999999999995</v>
+        <v>78.545000000000002</v>
       </c>
       <c r="M7">
-        <v>108.012</v>
+        <v>107.956</v>
       </c>
       <c r="N7">
-        <v>6.3890000000000002</v>
+        <v>6.2679999999999998</v>
       </c>
       <c r="O7">
-        <v>6.2709999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -827,46 +827,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.233510236969924E-2</v>
+        <v>6.1289491840871221E-2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8.1820000000000004</v>
+        <v>8.1869999999999994</v>
       </c>
       <c r="F8">
-        <v>178.77199999999999</v>
+        <v>178.51900000000001</v>
       </c>
       <c r="G8">
-        <v>62.462000000000003</v>
+        <v>61.796999999999997</v>
       </c>
       <c r="H8">
-        <v>9.3109999999999999</v>
+        <v>8.9540000000000006</v>
       </c>
       <c r="I8">
-        <v>8.782</v>
+        <v>8.48</v>
       </c>
       <c r="J8">
-        <v>7.1830489771666298E-2</v>
+        <v>6.5825414135119747E-2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>78.772000000000006</v>
+        <v>78.519000000000005</v>
       </c>
       <c r="M8">
-        <v>111.286</v>
+        <v>111.37</v>
       </c>
       <c r="N8">
-        <v>8.8450000000000006</v>
+        <v>9.0009999999999994</v>
       </c>
       <c r="O8">
-        <v>8.6590000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -874,46 +874,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.1170614451166325E-2</v>
+        <v>6.4804688505314012E-2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8.1850000000000005</v>
+        <v>8.1929999999999996</v>
       </c>
       <c r="F9">
-        <v>178.392</v>
+        <v>178.77799999999999</v>
       </c>
       <c r="G9">
-        <v>61.55</v>
+        <v>62.000999999999998</v>
       </c>
       <c r="H9">
-        <v>14.553000000000001</v>
+        <v>14.224</v>
       </c>
       <c r="I9">
-        <v>13.398999999999999</v>
+        <v>15.202999999999999</v>
       </c>
       <c r="J9">
-        <v>6.0158876656338608E-2</v>
+        <v>5.3070855334334574E-2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>78.391999999999996</v>
+        <v>78.778000000000006</v>
       </c>
       <c r="M9">
-        <v>118.48099999999999</v>
+        <v>118.583</v>
       </c>
       <c r="N9">
-        <v>14.528</v>
+        <v>14.619</v>
       </c>
       <c r="O9">
-        <v>14.263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.374000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -921,46 +921,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.5241146112820664E-2</v>
+        <v>7.8420665680586435E-2</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>8.1950000000000003</v>
+        <v>8.1690000000000005</v>
       </c>
       <c r="F10">
-        <v>181.86199999999999</v>
+        <v>181.86600000000001</v>
       </c>
       <c r="G10">
-        <v>67.072999999999993</v>
+        <v>67.067999999999998</v>
       </c>
       <c r="H10">
-        <v>9.1549999999999994</v>
+        <v>9.7219999999999995</v>
       </c>
       <c r="I10">
-        <v>8.8339999999999996</v>
+        <v>9.5570000000000004</v>
       </c>
       <c r="J10">
-        <v>7.3819874315969744E-2</v>
+        <v>7.7936820781322316E-2</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>81.861999999999995</v>
+        <v>81.866</v>
       </c>
       <c r="M10">
-        <v>181.86199999999999</v>
+        <v>181.86600000000001</v>
       </c>
       <c r="N10">
-        <v>9.5630000000000006</v>
+        <v>8.98</v>
       </c>
       <c r="O10">
-        <v>9.7230000000000008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.0820000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -968,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>7.5348366982980711E-2</v>
+        <v>7.9625837543733813E-2</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.1920000000000002</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="F11">
-        <v>181.542</v>
+        <v>181.80099999999999</v>
       </c>
       <c r="G11">
-        <v>66.703999999999994</v>
+        <v>67.028999999999996</v>
       </c>
       <c r="H11">
-        <v>6.7619999999999996</v>
+        <v>6.7080000000000002</v>
       </c>
       <c r="I11">
-        <v>6.625</v>
+        <v>6.6219999999999999</v>
       </c>
       <c r="J11">
-        <v>7.3913043478260887E-2</v>
+        <v>8.7081624160275886E-2</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>81.542000000000002</v>
+        <v>81.801000000000002</v>
       </c>
       <c r="M11">
-        <v>108.355</v>
+        <v>108.042</v>
       </c>
       <c r="N11">
-        <v>6.8380000000000001</v>
+        <v>6.5750000000000002</v>
       </c>
       <c r="O11">
-        <v>6.7069999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.4359999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1015,46 +1015,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>7.4222957675676174E-2</v>
+        <v>7.6547339998814384E-2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8.1959999999999997</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F12">
-        <v>181.58</v>
+        <v>181.90799999999999</v>
       </c>
       <c r="G12">
-        <v>66.691000000000003</v>
+        <v>67.108000000000004</v>
       </c>
       <c r="H12">
-        <v>9.8659999999999997</v>
+        <v>9.39</v>
       </c>
       <c r="I12">
-        <v>8.9480000000000004</v>
+        <v>9.141</v>
       </c>
       <c r="J12">
-        <v>7.4532405960195891E-2</v>
+        <v>7.5076043633312384E-2</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>81.58</v>
+        <v>81.908000000000001</v>
       </c>
       <c r="M12">
-        <v>111.69799999999999</v>
+        <v>111.813</v>
       </c>
       <c r="N12">
-        <v>9.5039999999999996</v>
+        <v>9.66</v>
       </c>
       <c r="O12">
-        <v>9.3390000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.4960000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1062,46 +1062,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>7.3693594981704247E-2</v>
+        <v>7.6419120428973211E-2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>8.1790000000000003</v>
+        <v>8.1630000000000003</v>
       </c>
       <c r="F13">
-        <v>181.226</v>
+        <v>181.7</v>
       </c>
       <c r="G13">
-        <v>66.174000000000007</v>
+        <v>67.058999999999997</v>
       </c>
       <c r="H13">
-        <v>15.292999999999999</v>
+        <v>16.262</v>
       </c>
       <c r="I13">
-        <v>14.574</v>
+        <v>14.622</v>
       </c>
       <c r="J13">
-        <v>7.3145839444607522E-2</v>
+        <v>8.4649907340262759E-2</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>81.225999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="M13">
-        <v>119.26300000000001</v>
+        <v>119.11</v>
       </c>
       <c r="N13">
-        <v>15.75</v>
+        <v>15.617000000000001</v>
       </c>
       <c r="O13">
-        <v>15.471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1109,46 +1109,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.5317842871555633E-2</v>
+        <v>9.9374222154186953E-2</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8.173</v>
+        <v>8.1880000000000006</v>
       </c>
       <c r="F14">
-        <v>183.346</v>
+        <v>183.453</v>
       </c>
       <c r="G14">
-        <v>69.417000000000002</v>
+        <v>69.73</v>
       </c>
       <c r="H14">
-        <v>10.233000000000001</v>
+        <v>9.94</v>
       </c>
       <c r="I14">
-        <v>9.2870000000000008</v>
+        <v>9.69</v>
       </c>
       <c r="J14">
-        <v>9.37314588431271E-2</v>
+        <v>9.8495500675524733E-2</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>83.346000000000004</v>
+        <v>83.453000000000003</v>
       </c>
       <c r="M14">
-        <v>183.346</v>
+        <v>183.453</v>
       </c>
       <c r="N14">
-        <v>9.6340000000000003</v>
+        <v>10.375</v>
       </c>
       <c r="O14">
-        <v>10.057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.7129999999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1156,46 +1156,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>9.0749936417167137E-2</v>
+        <v>0.10064718976926663</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>8.1750000000000007</v>
+        <v>8.1829999999999998</v>
       </c>
       <c r="F15">
-        <v>182.77099999999999</v>
+        <v>183.739</v>
       </c>
       <c r="G15">
-        <v>68.763000000000005</v>
+        <v>69.876000000000005</v>
       </c>
       <c r="H15">
-        <v>6.968</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="I15">
-        <v>6.859</v>
+        <v>6.7759999999999998</v>
       </c>
       <c r="J15">
-        <v>8.9350408541679444E-2</v>
+        <v>9.792746113989638E-2</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>82.771000000000001</v>
+        <v>83.739000000000004</v>
       </c>
       <c r="M15">
-        <v>108.295</v>
+        <v>108.491</v>
       </c>
       <c r="N15">
-        <v>6.8869999999999996</v>
+        <v>7.1669999999999998</v>
       </c>
       <c r="O15">
-        <v>6.734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.0289999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1203,46 +1203,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>9.8245995011948584E-2</v>
+        <v>9.7702965483446619E-2</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>8.1760000000000002</v>
+        <v>8.17</v>
       </c>
       <c r="F16">
-        <v>183.179</v>
+        <v>183.42099999999999</v>
       </c>
       <c r="G16">
-        <v>69.349999999999994</v>
+        <v>69.841999999999999</v>
       </c>
       <c r="H16">
-        <v>10.456</v>
+        <v>10.664</v>
       </c>
       <c r="I16">
-        <v>9.4649999999999999</v>
+        <v>10.23</v>
       </c>
       <c r="J16">
-        <v>9.1126031386507114E-2</v>
+        <v>9.4335572974990678E-2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>83.179000000000002</v>
+        <v>83.421000000000006</v>
       </c>
       <c r="M16">
-        <v>111.90600000000001</v>
+        <v>111.899</v>
       </c>
       <c r="N16">
-        <v>9.9489999999999998</v>
+        <v>9.952</v>
       </c>
       <c r="O16">
-        <v>9.7469999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.7530000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1250,43 +1250,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>9.1203246007761349E-2</v>
+        <v>9.7206417857266261E-2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8.17</v>
+        <v>8.1649999999999991</v>
       </c>
       <c r="F17">
-        <v>183.202</v>
+        <v>183.55699999999999</v>
       </c>
       <c r="G17">
-        <v>69.501000000000005</v>
+        <v>69.894999999999996</v>
       </c>
       <c r="H17">
-        <v>17.478999999999999</v>
+        <v>16.459</v>
       </c>
       <c r="I17">
-        <v>15.861000000000001</v>
+        <v>16.268000000000001</v>
       </c>
       <c r="J17">
-        <v>8.2840393996995887E-2</v>
+        <v>0.10490814683361278</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>83.201999999999998</v>
+        <v>83.557000000000002</v>
       </c>
       <c r="M17">
-        <v>119.54900000000001</v>
+        <v>119.503</v>
       </c>
       <c r="N17">
-        <v>16.143000000000001</v>
+        <v>16.279</v>
       </c>
       <c r="O17">
-        <v>15.84</v>
+        <v>15.9</v>
       </c>
     </row>
   </sheetData>
@@ -1295,29 +1295,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1324F17B-9537-4BA2-9545-B759E2848745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E86D6EE-13CE-4292-A680-5E88AED4058D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
